--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>5.789483081472292</v>
+        <v>11.81980536374715</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>7.880117721526667</v>
+        <v>11.05957333201351</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>8.793187674308667</v>
+        <v>11.68761758450075</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>7.248884056718633</v>
+        <v>12.04565863111419</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>7.637559217939003</v>
+        <v>10.01552436533117</v>
       </c>
     </row>
   </sheetData>
